--- a/tables/mml_counts_subset.xlsx
+++ b/tables/mml_counts_subset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
           <t>DOI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="b">
@@ -457,18 +452,12 @@
       <c r="B2" t="n">
         <v>97.66666666666667</v>
       </c>
-      <c r="C2" t="n">
-        <v>97.66666666666667</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="C3" t="n">
         <v>2.333333333333333</v>
       </c>
     </row>
